--- a/data/trans_bre/P23_2_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P23_2_R-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -525,6 +525,10 @@
     <col width="14" customWidth="1" min="8" max="8"/>
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,14 +546,18 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -571,27 +579,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -606,6 +634,10 @@
       <c r="H3" s="2" t="n"/>
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -620,42 +652,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-1,25</t>
+          <t>-0,22</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,48</t>
+          <t>0,39</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>1,86</t>
+          <t>2,7</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
+          <t>1,3</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
           <t>-8,0</t>
         </is>
       </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>-9,81%</t>
-        </is>
-      </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>6,45%</t>
+          <t>-7,06</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>34,31%</t>
+          <t>-1,84%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-54,31%</t>
+          <t>5,39%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>63,02%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>12,02%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>-54,33%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>-39,35%</t>
         </is>
       </c>
     </row>
@@ -668,42 +720,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-9,04; 7,03</t>
+          <t>-7,94; 7,45</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-5,66; 6,8</t>
+          <t>-5,24; 5,77</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-5,73; 7,57</t>
+          <t>-3,21; 7,66</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-17,9; 0,06</t>
+          <t>-7,75; 10,04</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-54,43; 83,85</t>
+          <t>-18,64; -0,52</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-53,8; 186,12</t>
+          <t>-17,53; 3,1</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-62,41; 395,87</t>
+          <t>-51,56; 93,42</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-82,27; 13,81</t>
+          <t>-53,5; 142,91</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>-53,22; 405,05</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>-50,5; 155,47</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-85,74; 5,37</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-70,87; 33,1</t>
         </is>
       </c>
     </row>
@@ -720,42 +792,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>4,2</t>
+          <t>4,07</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>16,86</t>
+          <t>17,29</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>9,7</t>
+          <t>9,47</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
+          <t>3,13</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
           <t>0,47</t>
         </is>
       </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>26,28%</t>
-        </is>
-      </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>150,04%</t>
+          <t>-0,98</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>84,11%</t>
+          <t>26,01%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>3,24%</t>
+          <t>160,96%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>81,2%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>13,68%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>3,29%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>-5,52%</t>
         </is>
       </c>
     </row>
@@ -768,42 +860,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-3,68; 13,43</t>
+          <t>-3,97; 13,27</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>8,58; 24,26</t>
+          <t>7,7; 24,69</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-0,29; 17,38</t>
+          <t>-0,51; 17,16</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-8,98; 9,24</t>
+          <t>-11,54; 14,19</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-18,14; 122,37</t>
+          <t>-9,33; 8,31</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>47,47; 311,23</t>
+          <t>-10,43; 8,11</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-7,57; 244,45</t>
+          <t>-20,39; 126,31</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-45,9; 93,92</t>
+          <t>43,87; 354,43</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>-5,45; 244,67</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-37,01; 84,39</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-46,24; 89,93</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>-43,52; 66,86</t>
         </is>
       </c>
     </row>
@@ -820,42 +932,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>3,38</t>
+          <t>4,1</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>7,74</t>
+          <t>7,28</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>5,53</t>
+          <t>6,37</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>7,27</t>
+          <t>-5,67</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>12,69%</t>
+          <t>7,26</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>35,38%</t>
+          <t>5,01</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>27,38%</t>
+          <t>15,4%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>31,91%</t>
+          <t>33,25%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>32,63%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>-18,59%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>31,9%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>19,56%</t>
         </is>
       </c>
     </row>
@@ -868,42 +1000,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-8,64; 11,92</t>
+          <t>-5,01; 12,91</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-0,07; 15,33</t>
+          <t>-1,55; 14,5</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-4,59; 12,64</t>
+          <t>-2,91; 13,75</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,51; 16,61</t>
+          <t>-14,23; 2,76</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-24,73; 55,42</t>
+          <t>-2,14; 15,17</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-1,06; 93,5</t>
+          <t>-5,81; 14,56</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-17,43; 82,81</t>
+          <t>-15,82; 61,0</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-6,62; 95,04</t>
+          <t>-6,7; 83,8</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-12,5; 94,08</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-39,52; 11,63</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>-8,54; 81,77</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>-19,76; 68,3</t>
         </is>
       </c>
     </row>
@@ -920,42 +1072,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>11,25</t>
+          <t>10,75</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>16,11</t>
+          <t>16,53</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>11,0</t>
+          <t>11,44</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>2,9</t>
+          <t>13,13</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>59,05%</t>
+          <t>2,92</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>81,7%</t>
+          <t>4,16</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>55,57%</t>
+          <t>56,59%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>10,17%</t>
+          <t>82,91%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>57,89%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>57,35%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>10,23%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>12,35%</t>
         </is>
       </c>
     </row>
@@ -968,42 +1140,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>3,42; 18,72</t>
+          <t>2,36; 17,58</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>8,98; 23,14</t>
+          <t>8,74; 23,8</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>3,51; 17,68</t>
+          <t>3,73; 17,36</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-6,65; 12,04</t>
+          <t>4,66; 19,74</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>12,1; 122,61</t>
+          <t>-7,4; 11,67</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>36,55; 145,83</t>
+          <t>-5,04; 13,54</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>13,46; 108,5</t>
+          <t>7,49; 116,9</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-18,77; 53,13</t>
+          <t>36,3; 154,33</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>17,45; 111,14</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>18,08; 107,73</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>-21,15; 49,99</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>-12,97; 50,42</t>
         </is>
       </c>
     </row>
@@ -1020,42 +1212,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>11,3</t>
+          <t>10,35</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>12,22</t>
+          <t>12,03</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>7,09</t>
+          <t>7,16</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
+          <t>9,15</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
           <t>5,55</t>
         </is>
       </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>54,38%</t>
-        </is>
-      </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>55,44%</t>
+          <t>2,31</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>33,87%</t>
+          <t>49,85%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
+          <t>53,2%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>33,67%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>29,58%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
           <t>17,72%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>6,52%</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1280,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>1,39; 19,85</t>
+          <t>2,15; 18,97</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>3,36; 19,47</t>
+          <t>4,85; 20,86</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-0,81; 14,67</t>
+          <t>-1,01; 14,5</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-3,66; 14,9</t>
+          <t>-1,38; 18,55</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>3,91; 115,54</t>
+          <t>-4,11; 14,13</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>13,61; 107,75</t>
+          <t>-7,54; 11,97</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-3,15; 84,81</t>
+          <t>8,04; 113,21</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-10,51; 57,01</t>
+          <t>16,86; 112,97</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>-4,43; 80,68</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>-4,82; 69,03</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>-10,79; 54,32</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>-19,01; 39,88</t>
         </is>
       </c>
     </row>
@@ -1120,42 +1352,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>9,59</t>
+          <t>10,29</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-2,39</t>
+          <t>-2,34</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
+          <t>1,34</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>12,81</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
           <t>-0,62</t>
         </is>
       </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>-0,63</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>55,23%</t>
-        </is>
-      </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-10,68%</t>
+          <t>5,04</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-3,29%</t>
+          <t>62,16%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-2,0%</t>
+          <t>-10,45%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>7,28%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>39,69%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>-1,96%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>15,22%</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1420,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-1,8; 19,23</t>
+          <t>-2,09; 19,16</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-11,36; 6,78</t>
+          <t>-11,11; 5,24</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-8,95; 7,8</t>
+          <t>-6,78; 10,14</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-12,64; 11,94</t>
+          <t>0,24; 25,5</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-13,67; 172,3</t>
+          <t>-13,43; 10,63</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-41,6; 42,73</t>
+          <t>-6,76; 15,57</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-37,47; 55,15</t>
+          <t>-13,66; 166,7</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-34,92; 46,04</t>
+          <t>-41,09; 29,01</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>-31,34; 72,04</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>1,02; 101,49</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>-35,36; 40,96</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>-16,95; 58,9</t>
         </is>
       </c>
     </row>
@@ -1220,42 +1492,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>6,8</t>
+          <t>7,01</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>8,84</t>
+          <t>8,82</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>5,92</t>
+          <t>6,62</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
+          <t>6,13</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
           <t>2,38</t>
         </is>
       </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>35,42%</t>
-        </is>
-      </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>50,32%</t>
+          <t>2,49</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>36,27%</t>
+          <t>37,26%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>9,93%</t>
+          <t>50,26%</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>41,35%</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>24,12%</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>9,95%</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>9,1%</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1560,69 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>2,7; 10,15</t>
+          <t>3,23; 10,77</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>5,5; 11,96</t>
+          <t>5,77; 12,23</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>1,87; 9,02</t>
+          <t>3,32; 9,75</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-1,83; 6,35</t>
+          <t>1,41; 10,58</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>12,22; 58,94</t>
+          <t>-1,44; 6,29</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>28,55; 76,68</t>
+          <t>-1,27; 7,0</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>9,45; 62,17</t>
+          <t>15,21; 62,38</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-7,01; 29,56</t>
+          <t>29,57; 77,21</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>17,62; 69,45</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>4,56; 46,24</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>-5,71; 29,19</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>-4,82; 27,26</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
@@ -1312,13 +1631,13 @@
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
     <mergeCell ref="A16:A17"/>
-    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A14:A15"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
